--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna3-Epha7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna3-Epha7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Efna3</t>
+  </si>
+  <si>
+    <t>Epha7</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Efna3</t>
-  </si>
-  <si>
-    <t>Epha7</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,13 +531,13 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06733099999999999</v>
+        <v>0.02551366666666667</v>
       </c>
       <c r="H2">
-        <v>0.134662</v>
+        <v>0.076541</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -549,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.014513</v>
+        <v>0.2421403333333333</v>
       </c>
       <c r="N2">
-        <v>0.043539</v>
+        <v>0.726421</v>
       </c>
       <c r="O2">
-        <v>0.006538124153480057</v>
+        <v>0.7386057795451564</v>
       </c>
       <c r="P2">
-        <v>0.009244530017173054</v>
+        <v>0.8091041635804498</v>
       </c>
       <c r="Q2">
-        <v>0.0009771748029999998</v>
+        <v>0.006177887751222222</v>
       </c>
       <c r="R2">
-        <v>0.005863048817999999</v>
+        <v>0.055600989761</v>
       </c>
       <c r="S2">
-        <v>0.006538124153480057</v>
+        <v>0.7386057795451564</v>
       </c>
       <c r="T2">
-        <v>0.009244530017173054</v>
+        <v>0.8091041635804498</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,173 +593,49 @@
         <v>1</v>
       </c>
       <c r="F3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>0.02551366666666667</v>
+      </c>
+      <c r="H3">
+        <v>0.076541</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
         <v>0.5</v>
       </c>
-      <c r="G3">
-        <v>0.06733099999999999</v>
-      </c>
-      <c r="H3">
-        <v>0.134662</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
       <c r="M3">
-        <v>0.2421403333333333</v>
+        <v>0.08569400000000001</v>
       </c>
       <c r="N3">
-        <v>0.726421</v>
+        <v>0.171388</v>
       </c>
       <c r="O3">
-        <v>0.1090845147039467</v>
+        <v>0.2613942204548436</v>
       </c>
       <c r="P3">
-        <v>0.154239204841748</v>
+        <v>0.1908958364195503</v>
       </c>
       <c r="Q3">
-        <v>0.01630355078366666</v>
+        <v>0.002186368151333334</v>
       </c>
       <c r="R3">
-        <v>0.09782130470199998</v>
+        <v>0.013118208908</v>
       </c>
       <c r="S3">
-        <v>0.1090845147039467</v>
+        <v>0.2613942204548436</v>
       </c>
       <c r="T3">
-        <v>0.154239204841748</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0.5</v>
-      </c>
-      <c r="G4">
-        <v>0.06733099999999999</v>
-      </c>
-      <c r="H4">
-        <v>0.134662</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M4">
-        <v>0.013551</v>
-      </c>
-      <c r="N4">
-        <v>0.04065299999999999</v>
-      </c>
-      <c r="O4">
-        <v>0.006104741983312082</v>
-      </c>
-      <c r="P4">
-        <v>0.008631752653669953</v>
-      </c>
-      <c r="Q4">
-        <v>0.0009124023809999998</v>
-      </c>
-      <c r="R4">
-        <v>0.005474414285999998</v>
-      </c>
-      <c r="S4">
-        <v>0.006104741983312082</v>
-      </c>
-      <c r="T4">
-        <v>0.008631752653669953</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.5</v>
-      </c>
-      <c r="G5">
-        <v>0.06733099999999999</v>
-      </c>
-      <c r="H5">
-        <v>0.134662</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1.9495455</v>
-      </c>
-      <c r="N5">
-        <v>3.899091</v>
-      </c>
-      <c r="O5">
-        <v>0.878272619159261</v>
-      </c>
-      <c r="P5">
-        <v>0.827884512487409</v>
-      </c>
-      <c r="Q5">
-        <v>0.1312648480605</v>
-      </c>
-      <c r="R5">
-        <v>0.5250593922419999</v>
-      </c>
-      <c r="S5">
-        <v>0.878272619159261</v>
-      </c>
-      <c r="T5">
-        <v>0.827884512487409</v>
+        <v>0.1908958364195503</v>
       </c>
     </row>
   </sheetData>
